--- a/tests/integration/units/constants/sets.xlsx
+++ b/tests/integration/units/constants/sets.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\fixtures\constants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\integration\units\constants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBB1D1A-4A0B-45AA-9A7D-80D3A1824646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B9F928-F653-4475-928A-633537106795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38490" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_set_CASE" sheetId="1" r:id="rId1"/>
-    <sheet name="_set_FLOWS" sheetId="2" r:id="rId2"/>
-    <sheet name="_set_FLOWS_AGG" sheetId="3" r:id="rId3"/>
+    <sheet name="_set_FLOWS" sheetId="2" r:id="rId1"/>
+    <sheet name="_set_FLOWS_AGG" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
-  <si>
-    <t>c_Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>f_Name</t>
   </si>
@@ -37,9 +33,6 @@
   </si>
   <si>
     <t>f_agg_Name</t>
-  </si>
-  <si>
-    <t>base</t>
   </si>
   <si>
     <t>oil products</t>
@@ -428,35 +421,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -464,68 +432,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -533,11 +501,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -545,34 +513,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration/units/constants/sets.xlsx
+++ b/tests/integration/units/constants/sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\integration\units\constants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B9F928-F653-4475-928A-633537106795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC19F4F-F454-4CCD-A85B-956EE3D3782D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32140" yWindow="2990" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_FLOWS" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>f_Name</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>transport, bev</t>
+  </si>
+  <si>
+    <t>f_agg_Category</t>
   </si>
 </sst>
 </file>
@@ -424,11 +427,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -505,18 +513,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
